--- a/biology/Zoologie/Dorcadiini/Dorcadiini.xlsx
+++ b/biology/Zoologie/Dorcadiini/Dorcadiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dorcadiini Latreille, 1825 sont une tribu de Coléoptères Cérambycidé Lamiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres présents en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">In Europe il y a seulement deux genres de Dorcadiini, donc le premier seulement est présent en France[1],[2],[3], tandis que le second est présent dans l'Europe orientale et l'Italie méridionale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In Europe il y a seulement deux genres de Dorcadiini, donc le premier seulement est présent en France tandis que le second est présent dans l'Europe orientale et l'Italie méridionale.
 Dorcadion Dalman, 1817.
 Dorcadion thessalicum, Pic, 1916
 Dorcadion thessalicum gioachinoi, Pesarini &amp; Sabbadini, 2007
